--- a/share_dinkum_proj/share_dinkum_app/import_data/data_import_template_public.xlsx
+++ b/share_dinkum_proj/share_dinkum_app/import_data/data_import_template_public.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED45DC35-D66F-48B5-AE04-438B5B51FAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02433E7E-7158-4E89-84A9-436E8AD16551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9819" uniqueCount="4827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9820" uniqueCount="4828">
   <si>
     <t>sheet_name</t>
   </si>
@@ -14523,6 +14523,9 @@
   </si>
   <si>
     <t>file</t>
+  </si>
+  <si>
+    <t>link</t>
   </si>
 </sst>
 </file>
@@ -14532,7 +14535,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14554,6 +14557,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -14588,14 +14598,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -14614,9 +14625,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="uuid" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
@@ -14688,19 +14701,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="table_info" displayName="table_info" ref="A1:D17">
-  <autoFilter ref="A1:D17" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="table_info" displayName="table_info" ref="A1:E17">
+  <autoFilter ref="A1:E17" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="3">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="4">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="sheet_name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="table_name"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="description"/>
     <tableColumn id="4" xr3:uid="{08F81B28-F2EE-45C1-B03F-C3CF7BC3C7F8}" name="available_for_import"/>
+    <tableColumn id="5" xr3:uid="{D0F52A90-199B-4C6F-A1C6-F797E2C155BA}" name="link" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15151,11 +15165,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15166,7 +15180,7 @@
     <col min="4" max="4" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15179,8 +15193,11 @@
       <c r="D1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>4827</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -15190,8 +15207,12 @@
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="str">
+        <f>HYPERLINK("#'01'!A1", "01")</f>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -15201,8 +15222,12 @@
       <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="8" t="str">
+        <f>HYPERLINK("#'02'!A1", "02")</f>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -15212,8 +15237,12 @@
       <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="8" t="str">
+        <f>HYPERLINK("#'03'!A1", "03")</f>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -15223,8 +15252,12 @@
       <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="8" t="str">
+        <f>HYPERLINK("#'04'!A1", "04")</f>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -15234,8 +15267,12 @@
       <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="8" t="str">
+        <f>HYPERLINK("#'05'!A1", "05")</f>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -15248,8 +15285,12 @@
       <c r="D7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="8" t="str">
+        <f>HYPERLINK("#'06'!A1", "06")</f>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -15262,8 +15303,12 @@
       <c r="D8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="8" t="str">
+        <f>HYPERLINK("#'07'!A1", "07")</f>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -15276,8 +15321,12 @@
       <c r="D9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="8" t="str">
+        <f>HYPERLINK("#'08'!A1", "08")</f>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -15290,8 +15339,12 @@
       <c r="D10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="8" t="str">
+        <f>HYPERLINK("#'09'!A1", "09")</f>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
@@ -15301,8 +15354,12 @@
       <c r="C11" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="8" t="str">
+        <f>HYPERLINK("#'10'!A1", "10")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -15315,8 +15372,12 @@
       <c r="D12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="8" t="str">
+        <f>HYPERLINK("#'11'!A1", "11")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -15329,8 +15390,12 @@
       <c r="D13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="8" t="str">
+        <f>HYPERLINK("#'12'!A1", "12")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -15343,8 +15408,12 @@
       <c r="D14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="8" t="str">
+        <f>HYPERLINK("#'13'!A1", "13")</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
@@ -15354,8 +15423,12 @@
       <c r="C15" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="8" t="str">
+        <f>HYPERLINK("#'14'!A1", "14")</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -15368,8 +15441,12 @@
       <c r="D16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="8" t="str">
+        <f>HYPERLINK("#'15'!A1", "15")</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -15381,6 +15458,10 @@
       </c>
       <c r="D17" t="b">
         <v>1</v>
+      </c>
+      <c r="E17" s="8" t="str">
+        <f>HYPERLINK("#'16'!A1", "16")</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/share_dinkum_proj/share_dinkum_app/import_data/data_import_template_public.xlsx
+++ b/share_dinkum_proj/share_dinkum_app/import_data/data_import_template_public.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02433E7E-7158-4E89-84A9-436E8AD16551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D789F431-0770-4D89-A231-7624BAC80A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9820" uniqueCount="4828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10109" uniqueCount="4880">
   <si>
     <t>sheet_name</t>
   </si>
@@ -14526,6 +14526,162 @@
   </si>
   <si>
     <t>link</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>A006</t>
+  </si>
+  <si>
+    <t>A007</t>
+  </si>
+  <si>
+    <t>A008</t>
+  </si>
+  <si>
+    <t>A009</t>
+  </si>
+  <si>
+    <t>A010</t>
+  </si>
+  <si>
+    <t>A011</t>
+  </si>
+  <si>
+    <t>A012</t>
+  </si>
+  <si>
+    <t>A013</t>
+  </si>
+  <si>
+    <t>A014</t>
+  </si>
+  <si>
+    <t>A015</t>
+  </si>
+  <si>
+    <t>2015-07-16_VGS.AX</t>
+  </si>
+  <si>
+    <t>2015-10-19_VGS.AX</t>
+  </si>
+  <si>
+    <t>2016-01-19_VGS.AX</t>
+  </si>
+  <si>
+    <t>2016-04-18_VGS.AX</t>
+  </si>
+  <si>
+    <t>2016-07-18_VGS.AX</t>
+  </si>
+  <si>
+    <t>2016-10-19_VGS.AX</t>
+  </si>
+  <si>
+    <t>2017-01-04_VGS.AX</t>
+  </si>
+  <si>
+    <t>2017-04-04_VGS.AX</t>
+  </si>
+  <si>
+    <t>2017-07-04_VGS.AX</t>
+  </si>
+  <si>
+    <t>2017-10-03_VGS.AX</t>
+  </si>
+  <si>
+    <t>2018-01-03_VGS.AX</t>
+  </si>
+  <si>
+    <t>2018-04-04_VGS.AX</t>
+  </si>
+  <si>
+    <t>2018-07-03_VGS.AX</t>
+  </si>
+  <si>
+    <t>2018-10-16_VGS.AX</t>
+  </si>
+  <si>
+    <t>2019-01-17_VGS.AX</t>
+  </si>
+  <si>
+    <t>2019-04-16_VGS.AX</t>
+  </si>
+  <si>
+    <t>2019-07-16_VGS.AX</t>
+  </si>
+  <si>
+    <t>2019-10-16_VGS.AX</t>
+  </si>
+  <si>
+    <t>2020-01-17_VGS.AX</t>
+  </si>
+  <si>
+    <t>2020-04-20_VGS.AX</t>
+  </si>
+  <si>
+    <t>2020-07-16_VGS.AX</t>
+  </si>
+  <si>
+    <t>2020-10-16_VGS.AX</t>
+  </si>
+  <si>
+    <t>2021-01-19_VGS.AX</t>
+  </si>
+  <si>
+    <t>2021-04-20_VGS.AX</t>
+  </si>
+  <si>
+    <t>2021-07-16_VGS.AX</t>
+  </si>
+  <si>
+    <t>2021-10-18_VGS.AX</t>
+  </si>
+  <si>
+    <t>2022-01-19_VGS.AX</t>
+  </si>
+  <si>
+    <t>2022-04-20_VGS.AX</t>
+  </si>
+  <si>
+    <t>2022-07-18_VGS.AX</t>
+  </si>
+  <si>
+    <t>2022-10-18_VGS.AX</t>
+  </si>
+  <si>
+    <t>2023-01-18_VGS.AX</t>
+  </si>
+  <si>
+    <t>2023-04-20_VGS.AX</t>
+  </si>
+  <si>
+    <t>2023-07-18_VGS.AX</t>
+  </si>
+  <si>
+    <t>2023-10-17_VGS.AX</t>
+  </si>
+  <si>
+    <t>2024-01-17_VGS.AX</t>
+  </si>
+  <si>
+    <t>2024-04-17_VGS.AX</t>
+  </si>
+  <si>
+    <t>2024-07-16_VGS.AX</t>
+  </si>
+  <si>
+    <t>2024-10-16_VGS.AX</t>
+  </si>
+  <si>
+    <t>2025-01-17_VGS.AX</t>
+  </si>
+  <si>
+    <t>2025-04-16_VGS.AX</t>
+  </si>
+  <si>
+    <t>2025-07-17_VGS.AX</t>
   </si>
 </sst>
 </file>
@@ -14633,12 +14789,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="uuid" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
@@ -14682,6 +14841,9 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -14721,12 +14883,12 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Distribution" displayName="Distribution" ref="A1:J18">
-  <autoFilter ref="A1:J18" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Distribution" displayName="Distribution" ref="A1:J59">
+  <autoFilter ref="A1:J59" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="10">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="legacy_id"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-1000-000009000000}" name="instrument__name"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1000-00000A000000}" name="date"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1000-00000A000000}" name="date" dataDxfId="2"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-1000-00000B000000}" name="quantity"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-1000-00000D000000}" name="distribution_amount_per_share_currency"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-1000-00000E000000}" name="distribution_amount_per_share"/>
@@ -14758,8 +14920,8 @@
   <tableColumns count="5">
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="name"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="description"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="currency" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="market__code" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="currency" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="market__code" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="notes" dataCellStyle="uuid"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -14767,9 +14929,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Buy" displayName="Buy" ref="A1:J12">
-  <autoFilter ref="A1:J12" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Buy" displayName="Buy" ref="A1:K40">
+  <autoFilter ref="A1:K40" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+  <tableColumns count="11">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="legacy_id"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="instrument__name"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="date"/>
@@ -14780,6 +14942,9 @@
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0800-00000E000000}" name="total_brokerage_currency"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0800-000010000000}" name="file"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="notes"/>
+    <tableColumn id="1" xr3:uid="{C7F63BA5-E4BD-406C-9701-B385DBE85C4B}" name="Column1" dataDxfId="10">
+      <calculatedColumnFormula>Buy[[#This Row],[date]]-1</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14809,11 +14974,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="SellAllocation" displayName="SellAllocation" ref="A1:E13">
   <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="legacy_id" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0B00-00000A000000}" name="lookup_legacy_sell" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0B00-00000B000000}" name="lookup_legacy_buy" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0B00-00000C000000}" name="quantity" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="notes" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="legacy_id" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0B00-00000A000000}" name="lookup_legacy_sell" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0B00-00000B000000}" name="lookup_legacy_buy" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0B00-00000C000000}" name="quantity" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="notes" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14823,22 +14988,22 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="ShareSplit" displayName="ShareSplit" ref="A1:H2" insertRow="1">
   <autoFilter ref="A1:H2" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="8">
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0C00-00000C000000}" name="date" dataDxfId="3" dataCellStyle="uuid"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0C00-00000C000000}" name="date" dataDxfId="4" dataCellStyle="uuid"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="legacy_id"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="description"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="instrument__name"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="quantity_before"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0C00-00000B000000}" name="quantity_after"/>
     <tableColumn id="1" xr3:uid="{6E9C5BC2-A43B-4633-A237-5D23CB7B74FB}" name="file"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="notes" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="notes" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="CostBaseAdjustment" displayName="CostBaseAdjustment" ref="A1:H6">
-  <autoFilter ref="A1:H6" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="CostBaseAdjustment" displayName="CostBaseAdjustment" ref="A1:H16">
+  <autoFilter ref="A1:H16" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="8">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="legacy_id"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0D00-000009000000}" name="cost_base_increase_currency"/>
@@ -15167,9 +15332,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15475,17 +15640,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="3" max="3" width="22" style="4" customWidth="1"/>
     <col min="4" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="35.85546875" customWidth="1"/>
     <col min="7" max="7" width="35.42578125" customWidth="1"/>
@@ -15502,7 +15667,7 @@
       <c r="B1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -15936,7 +16101,7 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>198</v>
       </c>
@@ -15963,7 +16128,7 @@
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>199</v>
       </c>
@@ -15989,6 +16154,1154 @@
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4839</v>
+      </c>
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="4">
+        <v>42201</v>
+      </c>
+      <c r="D19">
+        <v>500</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19">
+        <v>0.718283</v>
+      </c>
+      <c r="G19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4840</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="4">
+        <v>42296</v>
+      </c>
+      <c r="D20">
+        <v>850</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20">
+        <v>0.29811900000000002</v>
+      </c>
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4841</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="4">
+        <v>42388</v>
+      </c>
+      <c r="D21">
+        <v>850</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21">
+        <v>0.26725900000000002</v>
+      </c>
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4842</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="4">
+        <v>42478</v>
+      </c>
+      <c r="D22">
+        <v>1050</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22">
+        <v>0.236453</v>
+      </c>
+      <c r="G22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4843</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="4">
+        <v>42569</v>
+      </c>
+      <c r="D23">
+        <v>1250</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23">
+        <v>1.4921260000000001</v>
+      </c>
+      <c r="G23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4844</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="4">
+        <v>42662</v>
+      </c>
+      <c r="D24">
+        <v>1450</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24">
+        <v>0.24906600000000001</v>
+      </c>
+      <c r="G24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4845</v>
+      </c>
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="4">
+        <v>42739</v>
+      </c>
+      <c r="D25">
+        <v>1650</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25">
+        <v>0.355383</v>
+      </c>
+      <c r="G25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4846</v>
+      </c>
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="4">
+        <v>42829</v>
+      </c>
+      <c r="D26">
+        <v>1650</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26">
+        <v>0.26500099999999999</v>
+      </c>
+      <c r="G26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4847</v>
+      </c>
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="4">
+        <v>42920</v>
+      </c>
+      <c r="D27">
+        <v>1650</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27">
+        <v>0.98513600000000001</v>
+      </c>
+      <c r="G27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4848</v>
+      </c>
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="4">
+        <v>43011</v>
+      </c>
+      <c r="D28">
+        <v>1650</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28">
+        <v>0.23757500000000001</v>
+      </c>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4849</v>
+      </c>
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="4">
+        <v>43103</v>
+      </c>
+      <c r="D29">
+        <v>1650</v>
+      </c>
+      <c r="E29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29">
+        <v>0.30360399999999998</v>
+      </c>
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4850</v>
+      </c>
+      <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="4">
+        <v>43194</v>
+      </c>
+      <c r="D30">
+        <v>1650</v>
+      </c>
+      <c r="E30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30">
+        <v>0.209675</v>
+      </c>
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4851</v>
+      </c>
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="4">
+        <v>43284</v>
+      </c>
+      <c r="D31">
+        <v>2030</v>
+      </c>
+      <c r="E31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31">
+        <v>0.90857299999999996</v>
+      </c>
+      <c r="G31" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4852</v>
+      </c>
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="4">
+        <v>43389</v>
+      </c>
+      <c r="D32">
+        <v>2230</v>
+      </c>
+      <c r="E32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32">
+        <v>0.30354900000000001</v>
+      </c>
+      <c r="G32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4853</v>
+      </c>
+      <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="4">
+        <v>43482</v>
+      </c>
+      <c r="D33">
+        <v>2230</v>
+      </c>
+      <c r="E33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33">
+        <v>0.39028600000000002</v>
+      </c>
+      <c r="G33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4854</v>
+      </c>
+      <c r="B34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="4">
+        <v>43571</v>
+      </c>
+      <c r="D34">
+        <v>2380</v>
+      </c>
+      <c r="E34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34">
+        <v>0.484093</v>
+      </c>
+      <c r="G34" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4855</v>
+      </c>
+      <c r="B35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="4">
+        <v>43662</v>
+      </c>
+      <c r="D35">
+        <v>2560</v>
+      </c>
+      <c r="E35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35">
+        <v>0.72967899999999997</v>
+      </c>
+      <c r="G35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4856</v>
+      </c>
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="4">
+        <v>43754</v>
+      </c>
+      <c r="D36">
+        <v>2560</v>
+      </c>
+      <c r="E36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36">
+        <v>0.369838</v>
+      </c>
+      <c r="G36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4857</v>
+      </c>
+      <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="4">
+        <v>43847</v>
+      </c>
+      <c r="D37">
+        <v>2760</v>
+      </c>
+      <c r="E37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37">
+        <v>0.45085500000000001</v>
+      </c>
+      <c r="G37" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4858</v>
+      </c>
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="4">
+        <v>43941</v>
+      </c>
+      <c r="D38">
+        <v>2810</v>
+      </c>
+      <c r="E38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38">
+        <v>0.45424500000000001</v>
+      </c>
+      <c r="G38" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4859</v>
+      </c>
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="4">
+        <v>44028</v>
+      </c>
+      <c r="D39">
+        <v>2810</v>
+      </c>
+      <c r="E39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39">
+        <v>0.63554600000000006</v>
+      </c>
+      <c r="G39" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4860</v>
+      </c>
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="4">
+        <v>44120</v>
+      </c>
+      <c r="D40">
+        <v>3010</v>
+      </c>
+      <c r="E40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40">
+        <v>0.34500199999999998</v>
+      </c>
+      <c r="G40" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4861</v>
+      </c>
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="4">
+        <v>44215</v>
+      </c>
+      <c r="D41">
+        <v>3210</v>
+      </c>
+      <c r="E41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41">
+        <v>0.40335900000000002</v>
+      </c>
+      <c r="G41" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4862</v>
+      </c>
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="4">
+        <v>44306</v>
+      </c>
+      <c r="D42">
+        <v>3360</v>
+      </c>
+      <c r="E42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42">
+        <v>0.31558399999999998</v>
+      </c>
+      <c r="G42" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4863</v>
+      </c>
+      <c r="B43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="4">
+        <v>44393</v>
+      </c>
+      <c r="D43">
+        <v>3410</v>
+      </c>
+      <c r="E43" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43">
+        <v>0.81302799999999997</v>
+      </c>
+      <c r="G43" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4864</v>
+      </c>
+      <c r="B44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="4">
+        <v>44487</v>
+      </c>
+      <c r="D44">
+        <v>3410</v>
+      </c>
+      <c r="E44" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44">
+        <v>0.34259400000000001</v>
+      </c>
+      <c r="G44" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4865</v>
+      </c>
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="4">
+        <v>44580</v>
+      </c>
+      <c r="D45">
+        <v>3410</v>
+      </c>
+      <c r="E45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45">
+        <v>0.43116300000000002</v>
+      </c>
+      <c r="G45" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4866</v>
+      </c>
+      <c r="B46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="4">
+        <v>44671</v>
+      </c>
+      <c r="D46">
+        <v>3410</v>
+      </c>
+      <c r="E46" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46">
+        <v>0.40772199999999997</v>
+      </c>
+      <c r="G46" t="s">
+        <v>53</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>4867</v>
+      </c>
+      <c r="B47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="4">
+        <v>44760</v>
+      </c>
+      <c r="D47">
+        <v>3410</v>
+      </c>
+      <c r="E47" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47">
+        <v>0.54834000000000005</v>
+      </c>
+      <c r="G47" t="s">
+        <v>53</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4868</v>
+      </c>
+      <c r="B48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="4">
+        <v>44852</v>
+      </c>
+      <c r="D48">
+        <v>3410</v>
+      </c>
+      <c r="E48" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48">
+        <v>0.348331</v>
+      </c>
+      <c r="G48" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4869</v>
+      </c>
+      <c r="B49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="4">
+        <v>44944</v>
+      </c>
+      <c r="D49">
+        <v>3410</v>
+      </c>
+      <c r="E49" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49">
+        <v>0.30346499999999998</v>
+      </c>
+      <c r="G49" t="s">
+        <v>53</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4870</v>
+      </c>
+      <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="4">
+        <v>45036</v>
+      </c>
+      <c r="D50">
+        <v>3410</v>
+      </c>
+      <c r="E50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50">
+        <v>0.22421199999999999</v>
+      </c>
+      <c r="G50" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>4871</v>
+      </c>
+      <c r="B51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="4">
+        <v>45125</v>
+      </c>
+      <c r="D51">
+        <v>3410</v>
+      </c>
+      <c r="E51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51">
+        <v>1.1165689999999999</v>
+      </c>
+      <c r="G51" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>4872</v>
+      </c>
+      <c r="B52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="4">
+        <v>45216</v>
+      </c>
+      <c r="D52">
+        <v>3410</v>
+      </c>
+      <c r="E52" t="s">
+        <v>53</v>
+      </c>
+      <c r="F52">
+        <v>0.67191199999999995</v>
+      </c>
+      <c r="G52" t="s">
+        <v>53</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>4873</v>
+      </c>
+      <c r="B53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="4">
+        <v>45308</v>
+      </c>
+      <c r="D53">
+        <v>3410</v>
+      </c>
+      <c r="E53" t="s">
+        <v>53</v>
+      </c>
+      <c r="F53">
+        <v>0.55299299999999996</v>
+      </c>
+      <c r="G53" t="s">
+        <v>53</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>4874</v>
+      </c>
+      <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="4">
+        <v>45399</v>
+      </c>
+      <c r="D54">
+        <v>3410</v>
+      </c>
+      <c r="E54" t="s">
+        <v>53</v>
+      </c>
+      <c r="F54">
+        <v>1.002912</v>
+      </c>
+      <c r="G54" t="s">
+        <v>53</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>4875</v>
+      </c>
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="4">
+        <v>45489</v>
+      </c>
+      <c r="D55">
+        <v>3410</v>
+      </c>
+      <c r="E55" t="s">
+        <v>53</v>
+      </c>
+      <c r="F55">
+        <v>2.181273</v>
+      </c>
+      <c r="G55" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>4876</v>
+      </c>
+      <c r="B56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="4">
+        <v>45581</v>
+      </c>
+      <c r="D56">
+        <v>3410</v>
+      </c>
+      <c r="E56" t="s">
+        <v>53</v>
+      </c>
+      <c r="F56">
+        <v>0.28706599999999999</v>
+      </c>
+      <c r="G56" t="s">
+        <v>53</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>4877</v>
+      </c>
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="4">
+        <v>45674</v>
+      </c>
+      <c r="D57">
+        <v>3410</v>
+      </c>
+      <c r="E57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57">
+        <v>0.716777</v>
+      </c>
+      <c r="G57" t="s">
+        <v>53</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>4878</v>
+      </c>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="4">
+        <v>45763</v>
+      </c>
+      <c r="D58">
+        <v>3410</v>
+      </c>
+      <c r="E58" t="s">
+        <v>53</v>
+      </c>
+      <c r="F58">
+        <v>1.4702833200000001</v>
+      </c>
+      <c r="G58" t="s">
+        <v>53</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>4879</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="4">
+        <v>45854</v>
+      </c>
+      <c r="D59">
+        <v>3410</v>
+      </c>
+      <c r="E59" t="s">
+        <v>53</v>
+      </c>
+      <c r="F59">
+        <v>1.2787028300000001</v>
+      </c>
+      <c r="G59" t="s">
+        <v>53</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16005,7 +17318,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51395,11 +52708,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="B13:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51419,7 +52732,7 @@
     <col min="13" max="13" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -51450,8 +52763,11 @@
       <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>4828</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -51482,8 +52798,12 @@
       <c r="J2" t="s">
         <v>4820</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>43174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -51511,8 +52831,12 @@
       <c r="I3" t="s">
         <v>4809</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>43193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -51537,8 +52861,12 @@
       <c r="H4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>43549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -51563,8 +52891,12 @@
       <c r="H5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>43662</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -51589,8 +52921,12 @@
       <c r="H6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>43724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -51615,8 +52951,12 @@
       <c r="H7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>43753</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -51641,8 +52981,12 @@
       <c r="H8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -51667,8 +53011,12 @@
       <c r="H9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -51693,8 +53041,12 @@
       <c r="H10" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>137</v>
       </c>
@@ -51719,8 +53071,12 @@
       <c r="H11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>43996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>138</v>
       </c>
@@ -51744,6 +53100,766 @@
       </c>
       <c r="H12" t="s">
         <v>53</v>
+      </c>
+      <c r="K12" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="4">
+        <v>42128</v>
+      </c>
+      <c r="D13">
+        <v>250</v>
+      </c>
+      <c r="E13">
+        <v>57.81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13">
+        <v>9.5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>42127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="4">
+        <v>42180</v>
+      </c>
+      <c r="D14">
+        <v>250</v>
+      </c>
+      <c r="E14">
+        <v>59.315600000000003</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14">
+        <v>9.5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>42179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="4">
+        <v>42214</v>
+      </c>
+      <c r="D15">
+        <v>250</v>
+      </c>
+      <c r="E15">
+        <v>60.7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15">
+        <v>9.5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>42213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="4">
+        <v>42228</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>59.74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16">
+        <v>9.5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>42227</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="4">
+        <v>42436</v>
+      </c>
+      <c r="D17">
+        <v>200</v>
+      </c>
+      <c r="E17">
+        <v>54.34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17">
+        <v>9.5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>42435</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="4">
+        <v>42544</v>
+      </c>
+      <c r="D18">
+        <v>200</v>
+      </c>
+      <c r="E18">
+        <v>56.12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18">
+        <v>9.5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>42543</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="4">
+        <v>42634</v>
+      </c>
+      <c r="D19">
+        <v>200</v>
+      </c>
+      <c r="E19">
+        <v>56.08</v>
+      </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19">
+        <v>9.5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>42633</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="4">
+        <v>42680</v>
+      </c>
+      <c r="D20">
+        <v>200</v>
+      </c>
+      <c r="E20">
+        <v>54.17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20">
+        <v>9.5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>42679</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="4">
+        <v>43240</v>
+      </c>
+      <c r="D21">
+        <v>180</v>
+      </c>
+      <c r="E21">
+        <v>69.569999999999993</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21">
+        <v>9.5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>43239</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="4">
+        <v>43269</v>
+      </c>
+      <c r="D22">
+        <v>200</v>
+      </c>
+      <c r="E22">
+        <v>70.36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22">
+        <v>9.5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>43268</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="4">
+        <v>43297</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>69.86</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23">
+        <v>9.5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>43296</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="4">
+        <v>43348</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>72.86</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24">
+        <v>9.5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>43347</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="4">
+        <v>43488</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>67.17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25">
+        <v>9.5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="4">
+        <v>43542</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>72.64</v>
+      </c>
+      <c r="F26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26">
+        <v>9.5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>43541</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="4">
+        <v>43591</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>74.84</v>
+      </c>
+      <c r="F27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27">
+        <v>9.5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>43590</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="4">
+        <v>43600</v>
+      </c>
+      <c r="D28">
+        <v>80</v>
+      </c>
+      <c r="E28">
+        <v>73.819999999999993</v>
+      </c>
+      <c r="F28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28">
+        <v>9.5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>43599</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="4">
+        <v>43783</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>80.88</v>
+      </c>
+      <c r="F29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29">
+        <v>9.5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>43782</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="4">
+        <v>43815</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>82.3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30">
+        <v>9.5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>43814</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="4">
+        <v>43886</v>
+      </c>
+      <c r="D31">
+        <v>50</v>
+      </c>
+      <c r="E31">
+        <v>83.14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31">
+        <v>9.5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>43885</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="4">
+        <v>44028</v>
+      </c>
+      <c r="D32">
+        <v>100</v>
+      </c>
+      <c r="E32">
+        <v>78.8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32">
+        <v>9.5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>53</v>
+      </c>
+      <c r="K32" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>44027</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="4">
+        <v>44080</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33">
+        <v>79.41</v>
+      </c>
+      <c r="F33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33">
+        <v>9.5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>53</v>
+      </c>
+      <c r="K33" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="4">
+        <v>44123</v>
+      </c>
+      <c r="D34">
+        <v>50</v>
+      </c>
+      <c r="E34">
+        <v>82.82</v>
+      </c>
+      <c r="F34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34">
+        <v>9.5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>53</v>
+      </c>
+      <c r="K34" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="4">
+        <v>44152</v>
+      </c>
+      <c r="D35">
+        <v>50</v>
+      </c>
+      <c r="E35">
+        <v>84.4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35">
+        <v>9.5</v>
+      </c>
+      <c r="H35" t="s">
+        <v>53</v>
+      </c>
+      <c r="K35" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>44151</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="4">
+        <v>44180</v>
+      </c>
+      <c r="D36">
+        <v>50</v>
+      </c>
+      <c r="E36">
+        <v>84.3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36">
+        <v>9.5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>53</v>
+      </c>
+      <c r="K36" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>44179</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="4">
+        <v>44214</v>
+      </c>
+      <c r="D37">
+        <v>50</v>
+      </c>
+      <c r="E37">
+        <v>84.94</v>
+      </c>
+      <c r="F37" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37">
+        <v>9.5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>53</v>
+      </c>
+      <c r="K37" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>44213</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="4">
+        <v>44270</v>
+      </c>
+      <c r="D38">
+        <v>50</v>
+      </c>
+      <c r="E38">
+        <v>87.66</v>
+      </c>
+      <c r="F38" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38">
+        <v>9.5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>53</v>
+      </c>
+      <c r="K38" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>44269</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="4">
+        <v>44284</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>88.52</v>
+      </c>
+      <c r="F39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39">
+        <v>9.5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>53</v>
+      </c>
+      <c r="K39" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>44283</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="4">
+        <v>44307</v>
+      </c>
+      <c r="D40">
+        <v>50</v>
+      </c>
+      <c r="E40">
+        <v>90.95</v>
+      </c>
+      <c r="F40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40">
+        <v>9.5</v>
+      </c>
+      <c r="H40" t="s">
+        <v>53</v>
+      </c>
+      <c r="K40" s="4">
+        <f>Buy[[#This Row],[date]]-1</f>
+        <v>44306</v>
       </c>
     </row>
   </sheetData>
@@ -51762,7 +53878,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51928,7 +54044,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52201,11 +54317,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52356,6 +54472,206 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4829</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="4">
+        <v>42185</v>
+      </c>
+      <c r="G7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4830</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="4">
+        <v>42551</v>
+      </c>
+      <c r="G8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4831</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="4">
+        <v>42916</v>
+      </c>
+      <c r="G9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4832</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <v>220</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="4">
+        <v>43281</v>
+      </c>
+      <c r="G10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4833</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="4">
+        <v>43646</v>
+      </c>
+      <c r="G11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4834</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12">
+        <v>-144</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="4">
+        <v>44012</v>
+      </c>
+      <c r="G12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4835</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13">
+        <v>2600</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="4">
+        <v>44377</v>
+      </c>
+      <c r="G13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4836</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
+        <v>654</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="4">
+        <v>44742</v>
+      </c>
+      <c r="G14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4837</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15">
+        <v>1888</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="4">
+        <v>45107</v>
+      </c>
+      <c r="G15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4838</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16">
+        <v>1950.1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="4">
+        <v>45473</v>
+      </c>
+      <c r="G16" t="s">
         <v>153</v>
       </c>
     </row>

--- a/share_dinkum_proj/share_dinkum_app/import_data/data_import_template_public.xlsx
+++ b/share_dinkum_proj/share_dinkum_app/import_data/data_import_template_public.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D789F431-0770-4D89-A231-7624BAC80A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708C88EA-B0EC-4263-AA8C-D2D0DA5AE8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10109" uniqueCount="4880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10108" uniqueCount="4879">
   <si>
     <t>sheet_name</t>
   </si>
@@ -14526,9 +14526,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
   <si>
     <t>A006</t>
@@ -14789,7 +14786,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="uuid" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="12">
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -14839,9 +14836,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -14920,8 +14914,8 @@
   <tableColumns count="5">
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="name"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="description"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="currency" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="market__code" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="currency" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="market__code" dataDxfId="10"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="notes" dataCellStyle="uuid"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -14929,9 +14923,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Buy" displayName="Buy" ref="A1:K40">
-  <autoFilter ref="A1:K40" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Buy" displayName="Buy" ref="A1:J40">
+  <autoFilter ref="A1:J40" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+  <tableColumns count="10">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="legacy_id"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="instrument__name"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="date"/>
@@ -14942,9 +14936,6 @@
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0800-00000E000000}" name="total_brokerage_currency"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0800-000010000000}" name="file"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="notes"/>
-    <tableColumn id="1" xr3:uid="{C7F63BA5-E4BD-406C-9701-B385DBE85C4B}" name="Column1" dataDxfId="10">
-      <calculatedColumnFormula>Buy[[#This Row],[date]]-1</calculatedColumnFormula>
-    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15642,7 +15633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
@@ -16157,7 +16148,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>4839</v>
+        <v>4838</v>
       </c>
       <c r="B19" t="s">
         <v>120</v>
@@ -16185,7 +16176,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>4840</v>
+        <v>4839</v>
       </c>
       <c r="B20" t="s">
         <v>120</v>
@@ -16213,7 +16204,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>4841</v>
+        <v>4840</v>
       </c>
       <c r="B21" t="s">
         <v>120</v>
@@ -16241,7 +16232,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4842</v>
+        <v>4841</v>
       </c>
       <c r="B22" t="s">
         <v>120</v>
@@ -16269,7 +16260,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>4843</v>
+        <v>4842</v>
       </c>
       <c r="B23" t="s">
         <v>120</v>
@@ -16297,7 +16288,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>4844</v>
+        <v>4843</v>
       </c>
       <c r="B24" t="s">
         <v>120</v>
@@ -16325,7 +16316,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>4845</v>
+        <v>4844</v>
       </c>
       <c r="B25" t="s">
         <v>120</v>
@@ -16353,7 +16344,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>4846</v>
+        <v>4845</v>
       </c>
       <c r="B26" t="s">
         <v>120</v>
@@ -16381,7 +16372,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>4847</v>
+        <v>4846</v>
       </c>
       <c r="B27" t="s">
         <v>120</v>
@@ -16409,7 +16400,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>4848</v>
+        <v>4847</v>
       </c>
       <c r="B28" t="s">
         <v>120</v>
@@ -16437,7 +16428,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>4849</v>
+        <v>4848</v>
       </c>
       <c r="B29" t="s">
         <v>120</v>
@@ -16465,7 +16456,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>4850</v>
+        <v>4849</v>
       </c>
       <c r="B30" t="s">
         <v>120</v>
@@ -16493,7 +16484,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>4851</v>
+        <v>4850</v>
       </c>
       <c r="B31" t="s">
         <v>120</v>
@@ -16521,7 +16512,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>4852</v>
+        <v>4851</v>
       </c>
       <c r="B32" t="s">
         <v>120</v>
@@ -16549,7 +16540,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>4853</v>
+        <v>4852</v>
       </c>
       <c r="B33" t="s">
         <v>120</v>
@@ -16577,7 +16568,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>4854</v>
+        <v>4853</v>
       </c>
       <c r="B34" t="s">
         <v>120</v>
@@ -16605,7 +16596,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>4855</v>
+        <v>4854</v>
       </c>
       <c r="B35" t="s">
         <v>120</v>
@@ -16633,7 +16624,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>4856</v>
+        <v>4855</v>
       </c>
       <c r="B36" t="s">
         <v>120</v>
@@ -16661,7 +16652,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>4857</v>
+        <v>4856</v>
       </c>
       <c r="B37" t="s">
         <v>120</v>
@@ -16689,7 +16680,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>4858</v>
+        <v>4857</v>
       </c>
       <c r="B38" t="s">
         <v>120</v>
@@ -16717,7 +16708,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>4859</v>
+        <v>4858</v>
       </c>
       <c r="B39" t="s">
         <v>120</v>
@@ -16745,7 +16736,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>4860</v>
+        <v>4859</v>
       </c>
       <c r="B40" t="s">
         <v>120</v>
@@ -16773,7 +16764,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>4861</v>
+        <v>4860</v>
       </c>
       <c r="B41" t="s">
         <v>120</v>
@@ -16801,7 +16792,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>4862</v>
+        <v>4861</v>
       </c>
       <c r="B42" t="s">
         <v>120</v>
@@ -16829,7 +16820,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>4863</v>
+        <v>4862</v>
       </c>
       <c r="B43" t="s">
         <v>120</v>
@@ -16857,7 +16848,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>4864</v>
+        <v>4863</v>
       </c>
       <c r="B44" t="s">
         <v>120</v>
@@ -16885,7 +16876,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>4865</v>
+        <v>4864</v>
       </c>
       <c r="B45" t="s">
         <v>120</v>
@@ -16913,7 +16904,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>4866</v>
+        <v>4865</v>
       </c>
       <c r="B46" t="s">
         <v>120</v>
@@ -16941,7 +16932,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>4867</v>
+        <v>4866</v>
       </c>
       <c r="B47" t="s">
         <v>120</v>
@@ -16969,7 +16960,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>4868</v>
+        <v>4867</v>
       </c>
       <c r="B48" t="s">
         <v>120</v>
@@ -16997,7 +16988,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>4869</v>
+        <v>4868</v>
       </c>
       <c r="B49" t="s">
         <v>120</v>
@@ -17025,7 +17016,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>4870</v>
+        <v>4869</v>
       </c>
       <c r="B50" t="s">
         <v>120</v>
@@ -17053,7 +17044,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>4871</v>
+        <v>4870</v>
       </c>
       <c r="B51" t="s">
         <v>120</v>
@@ -17081,7 +17072,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>4872</v>
+        <v>4871</v>
       </c>
       <c r="B52" t="s">
         <v>120</v>
@@ -17109,7 +17100,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>4873</v>
+        <v>4872</v>
       </c>
       <c r="B53" t="s">
         <v>120</v>
@@ -17137,7 +17128,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>4874</v>
+        <v>4873</v>
       </c>
       <c r="B54" t="s">
         <v>120</v>
@@ -17165,7 +17156,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>4875</v>
+        <v>4874</v>
       </c>
       <c r="B55" t="s">
         <v>120</v>
@@ -17193,7 +17184,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>4876</v>
+        <v>4875</v>
       </c>
       <c r="B56" t="s">
         <v>120</v>
@@ -17221,7 +17212,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>4877</v>
+        <v>4876</v>
       </c>
       <c r="B57" t="s">
         <v>120</v>
@@ -17249,7 +17240,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>4878</v>
+        <v>4877</v>
       </c>
       <c r="B58" t="s">
         <v>120</v>
@@ -17277,7 +17268,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>4879</v>
+        <v>4878</v>
       </c>
       <c r="B59" t="s">
         <v>120</v>
@@ -52708,11 +52699,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="B13:D40"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52727,12 +52718,11 @@
     <col min="8" max="8" width="27" customWidth="1"/>
     <col min="9" max="9" width="30" customWidth="1"/>
     <col min="10" max="10" width="22.5703125" customWidth="1"/>
-    <col min="11" max="11" width="49" customWidth="1"/>
-    <col min="12" max="12" width="38.140625" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" customWidth="1"/>
+    <col min="11" max="11" width="38.140625" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -52763,11 +52753,8 @@
       <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" t="s">
-        <v>4828</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -52798,12 +52785,8 @@
       <c r="J2" t="s">
         <v>4820</v>
       </c>
-      <c r="K2" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>43174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -52831,12 +52814,8 @@
       <c r="I3" t="s">
         <v>4809</v>
       </c>
-      <c r="K3" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>43193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -52861,12 +52840,8 @@
       <c r="H4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>43549</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -52891,12 +52866,8 @@
       <c r="H5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>43662</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -52921,12 +52892,8 @@
       <c r="H6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>43724</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -52951,12 +52918,8 @@
       <c r="H7" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>43753</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -52981,12 +52944,8 @@
       <c r="H8" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>43912</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -53011,12 +52970,8 @@
       <c r="H9" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>43940</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -53041,12 +52996,8 @@
       <c r="H10" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>43969</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>137</v>
       </c>
@@ -53071,12 +53022,8 @@
       <c r="H11" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>43996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>138</v>
       </c>
@@ -53101,12 +53048,8 @@
       <c r="H12" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>44196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>120</v>
       </c>
@@ -53128,12 +53071,8 @@
       <c r="H13" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>42127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>120</v>
       </c>
@@ -53155,12 +53094,8 @@
       <c r="H14" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>42179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>120</v>
       </c>
@@ -53182,12 +53117,8 @@
       <c r="H15" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>42213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>120</v>
       </c>
@@ -53209,12 +53140,8 @@
       <c r="H16" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>42227</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>120</v>
       </c>
@@ -53236,12 +53163,8 @@
       <c r="H17" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>42435</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>120</v>
       </c>
@@ -53263,12 +53186,8 @@
       <c r="H18" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>42543</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>120</v>
       </c>
@@ -53290,12 +53209,8 @@
       <c r="H19" t="s">
         <v>53</v>
       </c>
-      <c r="K19" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>42633</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>120</v>
       </c>
@@ -53317,12 +53232,8 @@
       <c r="H20" t="s">
         <v>53</v>
       </c>
-      <c r="K20" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>42679</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>120</v>
       </c>
@@ -53344,12 +53255,8 @@
       <c r="H21" t="s">
         <v>53</v>
       </c>
-      <c r="K21" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>43239</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>120</v>
       </c>
@@ -53371,12 +53278,8 @@
       <c r="H22" t="s">
         <v>53</v>
       </c>
-      <c r="K22" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>43268</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>120</v>
       </c>
@@ -53398,12 +53301,8 @@
       <c r="H23" t="s">
         <v>53</v>
       </c>
-      <c r="K23" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>43296</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>120</v>
       </c>
@@ -53425,12 +53324,8 @@
       <c r="H24" t="s">
         <v>53</v>
       </c>
-      <c r="K24" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>43347</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>120</v>
       </c>
@@ -53452,12 +53347,8 @@
       <c r="H25" t="s">
         <v>53</v>
       </c>
-      <c r="K25" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>43487</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>120</v>
       </c>
@@ -53479,12 +53370,8 @@
       <c r="H26" t="s">
         <v>53</v>
       </c>
-      <c r="K26" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>43541</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>120</v>
       </c>
@@ -53506,12 +53393,8 @@
       <c r="H27" t="s">
         <v>53</v>
       </c>
-      <c r="K27" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>43590</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>120</v>
       </c>
@@ -53533,12 +53416,8 @@
       <c r="H28" t="s">
         <v>53</v>
       </c>
-      <c r="K28" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>43599</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>120</v>
       </c>
@@ -53560,12 +53439,8 @@
       <c r="H29" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>43782</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>120</v>
       </c>
@@ -53587,12 +53462,8 @@
       <c r="H30" t="s">
         <v>53</v>
       </c>
-      <c r="K30" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>43814</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>120</v>
       </c>
@@ -53614,12 +53485,8 @@
       <c r="H31" t="s">
         <v>53</v>
       </c>
-      <c r="K31" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>43885</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>120</v>
       </c>
@@ -53641,12 +53508,8 @@
       <c r="H32" t="s">
         <v>53</v>
       </c>
-      <c r="K32" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>44027</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>120</v>
       </c>
@@ -53668,12 +53531,8 @@
       <c r="H33" t="s">
         <v>53</v>
       </c>
-      <c r="K33" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>44079</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>120</v>
       </c>
@@ -53695,12 +53554,8 @@
       <c r="H34" t="s">
         <v>53</v>
       </c>
-      <c r="K34" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>44122</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>120</v>
       </c>
@@ -53722,12 +53577,8 @@
       <c r="H35" t="s">
         <v>53</v>
       </c>
-      <c r="K35" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>44151</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>120</v>
       </c>
@@ -53749,12 +53600,8 @@
       <c r="H36" t="s">
         <v>53</v>
       </c>
-      <c r="K36" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>44179</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>120</v>
       </c>
@@ -53776,12 +53623,8 @@
       <c r="H37" t="s">
         <v>53</v>
       </c>
-      <c r="K37" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>44213</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>120</v>
       </c>
@@ -53803,12 +53646,8 @@
       <c r="H38" t="s">
         <v>53</v>
       </c>
-      <c r="K38" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>44269</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>120</v>
       </c>
@@ -53830,12 +53669,8 @@
       <c r="H39" t="s">
         <v>53</v>
       </c>
-      <c r="K39" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>44283</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>120</v>
       </c>
@@ -53856,10 +53691,6 @@
       </c>
       <c r="H40" t="s">
         <v>53</v>
-      </c>
-      <c r="K40" s="4">
-        <f>Buy[[#This Row],[date]]-1</f>
-        <v>44306</v>
       </c>
     </row>
   </sheetData>
@@ -54477,7 +54308,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4829</v>
+        <v>4828</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -54497,7 +54328,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4830</v>
+        <v>4829</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -54517,7 +54348,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4831</v>
+        <v>4830</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
@@ -54537,7 +54368,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4832</v>
+        <v>4831</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
@@ -54557,7 +54388,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4833</v>
+        <v>4832</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -54577,7 +54408,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4834</v>
+        <v>4833</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -54597,7 +54428,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -54617,7 +54448,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4836</v>
+        <v>4835</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -54637,7 +54468,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4837</v>
+        <v>4836</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
@@ -54657,7 +54488,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4838</v>
+        <v>4837</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
